--- a/medicine/Handicap/Braille_japonais/Braille_japonais.xlsx
+++ b/medicine/Handicap/Braille_japonais/Braille_japonais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le braille japonais, appelé tenji (点字?), est un alphabet braille adapté à l'écriture du japonais. Il permet la transcription des kanas et des chiffres par l'intermédiaire de points surélevés. Il fut élaboré par Kuraji Ishikawa[1]. Par opposition au tenji (le braille japonais), les caractères usités par les personnes voyantes sont appelés sumiji (墨字?).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le braille japonais, appelé tenji (点字?), est un alphabet braille adapté à l'écriture du japonais. Il permet la transcription des kanas et des chiffres par l'intermédiaire de points surélevés. Il fut élaboré par Kuraji Ishikawa. Par opposition au tenji (le braille japonais), les caractères usités par les personnes voyantes sont appelés sumiji (墨字?).
 Récemment, des mouvements comme le Barrier Free ou encore l'Universal Design ont demandé via une charte aux industries de travailler au développement de l'accessibilité de leurs produits ou de leurs structures pour personnes souffrant d'un handicap, en encourageant le tenji. Ainsi, des mouvements significatifs ont permis l'introduction de mentions en braille sur les produits alcoolisés telles que les canettes de bière.
 L'article 37 des lois de droit d'auteur au Japon autorise la transcription en braille d'ouvrages[réf. nécessaire]. 
 </t>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 1670, l'italien Francesco Lana de Terzi invente un système transcrivant l'alphabet au moyen de combinaisons de lignes et de points en relief.
 En 1819, le français Charles Barbier de La Serre invente, pour un usage militaire, la sonographie (ou écriture nocturne), système d'écriture tactile transcrivant des sons à l'aide de deux colonnes de six points en relief.
@@ -554,7 +568,9 @@
           <t>Caractères de base</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les voyelles sont représentées par les points 1, 2 et 4. Elles peuvent être utilisées seules.
 Les points 3, 5 et 6 servent à coder les consonnes qui sont combinées avec les voyelles en un caractère unique.
@@ -589,7 +605,9 @@
           <t>Autres caractères</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les voyelles longues, le braille utilise le chōon dans tous les cas.
 De plus, il utilise les syllabes wa et e pour les particules de thème et de direction, là où on utilise ha et he en kana.
@@ -621,9 +639,11 @@
           <t>Caractères composés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Dakuon (濁音)
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dakuon (濁音)
 consonne sonore
 En kana, le voisement d’une consonne est représenté par le signe ゛ (dakuten).
 Ex. : か (ka) → が (ga)
@@ -643,14 +663,7 @@
 ⠡ = ka, ⠈⠡ = kya
 ⠣ = ki, ⠢⠣ = kwi
 Les quatre préfixes ci-dessus peuvent être combinés entre eux :
-Dakuon
-Handakuon
-Yōon
-Yōon-dakuon
-Yōon-handakuon
-Yōon-dakuon-handakuon
-Gōyōon
-Gōyōon-dakuon</t>
+</t>
         </is>
       </c>
     </row>
@@ -679,6 +692,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
